--- a/data/trans_orig/P04C04_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P04C04_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>595335</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>572295</v>
+        <v>572971</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>612876</v>
+        <v>612362</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8632751903490546</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8298647377504309</v>
+        <v>0.8308449510153061</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.888709881491897</v>
+        <v>0.8879655235272607</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1028</v>
@@ -762,19 +762,19 @@
         <v>628065</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>612869</v>
+        <v>611436</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>641408</v>
+        <v>641012</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8581405843848858</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.837378255385806</v>
+        <v>0.8354202747725615</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8763726777400079</v>
+        <v>0.8758314199901263</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1654</v>
@@ -783,19 +783,19 @@
         <v>1223400</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1196671</v>
+        <v>1197475</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1247148</v>
+        <v>1245418</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8606315527362111</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8418286520860598</v>
+        <v>0.8423939647858459</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8773379570152038</v>
+        <v>0.8761211318519748</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>3578</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8964</v>
+        <v>9524</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.005188056081478223</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.001311163408769708</v>
+        <v>0.001317002191865507</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01299852542655965</v>
+        <v>0.01381040364645437</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>2838</v>
+        <v>2933</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.001186881323273514</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.003877315215004152</v>
+        <v>0.004007116855066432</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>6</v>
@@ -854,19 +854,19 @@
         <v>4446</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1657</v>
+        <v>1849</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>9908</v>
+        <v>11489</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.003127984449854506</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.001165501364543167</v>
+        <v>0.001300728355910137</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.006970145155725945</v>
+        <v>0.008082218437606252</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>90711</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>73703</v>
+        <v>74689</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>114875</v>
+        <v>112290</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.131536753569467</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1068738988618887</v>
+        <v>0.1083041599212661</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1665768290354958</v>
+        <v>0.1628282424357796</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>208</v>
@@ -904,19 +904,19 @@
         <v>102957</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>89167</v>
+        <v>90198</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>118338</v>
+        <v>119513</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1406725342918407</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1218312108287007</v>
+        <v>0.1232395735105347</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1616884978052282</v>
+        <v>0.1632936199679517</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>307</v>
@@ -925,19 +925,19 @@
         <v>193668</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>170981</v>
+        <v>171214</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>219902</v>
+        <v>220402</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1362404628139344</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1202808688514439</v>
+        <v>0.120444709671897</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1546957877184758</v>
+        <v>0.1550473949979986</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>907786</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>879881</v>
+        <v>881822</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>930895</v>
+        <v>932591</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.865905036494831</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8392875730956058</v>
+        <v>0.8411390308941512</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8879480140273024</v>
+        <v>0.8895654229241527</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1268</v>
@@ -1050,19 +1050,19 @@
         <v>913348</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>891151</v>
+        <v>892699</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>930890</v>
+        <v>931566</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8555940685136284</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8348006136083447</v>
+        <v>0.8362501646234614</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8720262872674807</v>
+        <v>0.8726601478604563</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2101</v>
@@ -1071,19 +1071,19 @@
         <v>1821135</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1788217</v>
+        <v>1786497</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1853601</v>
+        <v>1850974</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8607029273585974</v>
+        <v>0.8607029273585975</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8451453002530489</v>
+        <v>0.8443325196383299</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8760471611133051</v>
+        <v>0.8748055191944207</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>28722</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>19172</v>
+        <v>18009</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>43086</v>
+        <v>43529</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02739730699432373</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01828773860627866</v>
+        <v>0.01717826554233294</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04109821370934214</v>
+        <v>0.04152049954313986</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>23</v>
@@ -1121,19 +1121,19 @@
         <v>17273</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>11295</v>
+        <v>10811</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>25849</v>
+        <v>25232</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01618058861344946</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01058031617446148</v>
+        <v>0.01012712496890103</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.02421420558728907</v>
+        <v>0.02363684702086427</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>46</v>
@@ -1142,19 +1142,19 @@
         <v>45995</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>32964</v>
+        <v>33937</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>61992</v>
+        <v>64673</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02173822694732127</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01557950294072624</v>
+        <v>0.0160390738427822</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02929876012673766</v>
+        <v>0.03056578151842456</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>111858</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>91854</v>
+        <v>88833</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>136935</v>
+        <v>136795</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1066976565108452</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08761627763682636</v>
+        <v>0.08473434078137521</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1306178365992577</v>
+        <v>0.13048347733246</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>220</v>
@@ -1192,19 +1192,19 @@
         <v>136881</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>119523</v>
+        <v>118813</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>158428</v>
+        <v>155529</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1282253428729223</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1119653534817044</v>
+        <v>0.1112997370479795</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1484100732658861</v>
+        <v>0.1456944416584018</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>327</v>
@@ -1213,19 +1213,19 @@
         <v>248739</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>219803</v>
+        <v>220677</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>278996</v>
+        <v>281293</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1175588456940813</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1038829790699946</v>
+        <v>0.1042960467471881</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1318588766928758</v>
+        <v>0.1329441945753723</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>651910</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>624367</v>
+        <v>623250</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>676809</v>
+        <v>677210</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8153824944611122</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7809337179029477</v>
+        <v>0.7795366437289654</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8465261193674651</v>
+        <v>0.8470272300123649</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>888</v>
@@ -1338,19 +1338,19 @@
         <v>684999</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>665675</v>
+        <v>664541</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>704368</v>
+        <v>704419</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.8454042527093566</v>
+        <v>0.8454042527093565</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8215552925076832</v>
+        <v>0.8201552709708539</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8693083659011154</v>
+        <v>0.8693721075268701</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1443</v>
@@ -1359,19 +1359,19 @@
         <v>1336909</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1303266</v>
+        <v>1305337</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1370291</v>
+        <v>1371114</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.8304935894400638</v>
+        <v>0.8304935894400639</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8095949024601352</v>
+        <v>0.8108812250225047</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8512307479865133</v>
+        <v>0.851741836693848</v>
       </c>
     </row>
     <row r="13">
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7414</v>
+        <v>6765</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.002235538806586653</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.009272530329778815</v>
+        <v>0.008461179823269662</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -1409,19 +1409,19 @@
         <v>5532</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1443</v>
+        <v>1415</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>15272</v>
+        <v>13580</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.006827383666967572</v>
+        <v>0.006827383666967573</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.001781078469926715</v>
+        <v>0.001745980929097681</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01884771339625051</v>
+        <v>0.01675995394896224</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>6</v>
@@ -1430,19 +1430,19 @@
         <v>7319</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2769</v>
+        <v>2920</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>16097</v>
+        <v>16954</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.004546789308308533</v>
+        <v>0.004546789308308534</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.00172024859673914</v>
+        <v>0.001813689753382506</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.009999365180599356</v>
+        <v>0.01053207861317579</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>145817</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>121454</v>
+        <v>120517</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>173831</v>
+        <v>174577</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.182381966732301</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1519102141093973</v>
+        <v>0.1507381919602259</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2174202733618687</v>
+        <v>0.2183539243936542</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>152</v>
@@ -1480,19 +1480,19 @@
         <v>119731</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>101781</v>
+        <v>101298</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>140895</v>
+        <v>139541</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1477683636236761</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1256146733168115</v>
+        <v>0.1250185305804504</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1738884694947505</v>
+        <v>0.1722174816369952</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>268</v>
@@ -1501,19 +1501,19 @@
         <v>265548</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>234956</v>
+        <v>231427</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>301298</v>
+        <v>296413</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1649596212516275</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1459557116998337</v>
+        <v>0.143763592966066</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1871679455126606</v>
+        <v>0.1841331403396708</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>837018</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>809132</v>
+        <v>809521</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>860249</v>
+        <v>858877</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.8497498258486331</v>
+        <v>0.8497498258486332</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8214391916652559</v>
+        <v>0.8218345269272527</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8733342063196656</v>
+        <v>0.8719415353492038</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1299</v>
@@ -1626,19 +1626,19 @@
         <v>943115</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>921526</v>
+        <v>920767</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>963986</v>
+        <v>963047</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.8451627791897391</v>
+        <v>0.8451627791897395</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.82581586981552</v>
+        <v>0.8251350333672969</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8638659471393348</v>
+        <v>0.8630244521572756</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2145</v>
@@ -1647,19 +1647,19 @@
         <v>1780133</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1742856</v>
+        <v>1739973</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1810538</v>
+        <v>1809802</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.8473134226564436</v>
+        <v>0.8473134226564435</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8295701532722387</v>
+        <v>0.8281977304048559</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8617854817958065</v>
+        <v>0.8614349831721564</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>13846</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6991</v>
+        <v>7244</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>28172</v>
+        <v>28200</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.01405663948005407</v>
+        <v>0.01405663948005408</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.007097568951408041</v>
+        <v>0.007354463185552897</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02860041122348275</v>
+        <v>0.02862939671595479</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>26</v>
@@ -1697,19 +1697,19 @@
         <v>18417</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>12168</v>
+        <v>12093</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>29516</v>
+        <v>29184</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.01650431938799203</v>
+        <v>0.01650431938799204</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01090423422495577</v>
+        <v>0.01083657328697952</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02645026933347861</v>
+        <v>0.02615331873388368</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>38</v>
@@ -1718,19 +1718,19 @@
         <v>32263</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>22381</v>
+        <v>23663</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>49195</v>
+        <v>48754</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01535672111964133</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01065300302426478</v>
+        <v>0.01126312993266376</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0234159004193931</v>
+        <v>0.02320625171654697</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>134153</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>112839</v>
+        <v>113295</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>160251</v>
+        <v>159065</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.136193534671313</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1145557105489889</v>
+        <v>0.1150183303946634</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1626887504792523</v>
+        <v>0.1614849629210313</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>234</v>
@@ -1768,19 +1768,19 @@
         <v>154365</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>134042</v>
+        <v>135491</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>175100</v>
+        <v>175964</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1383329014222688</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1201202559431633</v>
+        <v>0.1214184871424078</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.156914263322727</v>
+        <v>0.1576884031651621</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>377</v>
@@ -1789,19 +1789,19 @@
         <v>288518</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>258958</v>
+        <v>259801</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>322636</v>
+        <v>325735</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1373298562239151</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1232595463148614</v>
+        <v>0.1236608982842519</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1535695092707433</v>
+        <v>0.1550442654221224</v>
       </c>
     </row>
     <row r="19">
@@ -1893,19 +1893,19 @@
         <v>2992049</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2941290</v>
+        <v>2943213</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3039225</v>
+        <v>3038612</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8494054207372825</v>
+        <v>0.8494054207372826</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8349953531951758</v>
+        <v>0.8355413723873623</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8627979423539923</v>
+        <v>0.8626239658572936</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4483</v>
@@ -1914,19 +1914,19 @@
         <v>3169527</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3131802</v>
+        <v>3130313</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>3210096</v>
+        <v>3207716</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8507537388591976</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8406276806522689</v>
+        <v>0.8402279572980356</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.861643088963576</v>
+        <v>0.8610041881643542</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>7343</v>
@@ -1935,19 +1935,19 @@
         <v>6161577</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>6092755</v>
+        <v>6104942</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6218347</v>
+        <v>6227823</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8500984640631123</v>
+        <v>0.8500984640631124</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.840603266468588</v>
+        <v>0.8422847297069804</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8579309465735083</v>
+        <v>0.8592383064862065</v>
       </c>
     </row>
     <row r="21">
@@ -1964,19 +1964,19 @@
         <v>47934</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>34811</v>
+        <v>34635</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>66711</v>
+        <v>65520</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01360775291807687</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.009882468949823267</v>
+        <v>0.009832328272908246</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01893841741470511</v>
+        <v>0.01860042328050596</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>55</v>
@@ -1985,19 +1985,19 @@
         <v>42091</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>31667</v>
+        <v>31930</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>57841</v>
+        <v>56903</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01129781153060225</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.008499837378013294</v>
+        <v>0.008570577761949435</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.01552539414029025</v>
+        <v>0.01527382406794407</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>96</v>
@@ -2006,19 +2006,19 @@
         <v>90024</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>70445</v>
+        <v>70258</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>113406</v>
+        <v>112187</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01242042966281028</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.009719074972090637</v>
+        <v>0.009693318457536505</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01564634520760665</v>
+        <v>0.01547814657206611</v>
       </c>
     </row>
     <row r="22">
@@ -2035,19 +2035,19 @@
         <v>482539</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>437789</v>
+        <v>435728</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>529732</v>
+        <v>530884</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.1369868263446406</v>
+        <v>0.1369868263446405</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.124282766536773</v>
+        <v>0.1236978411244491</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1503843750213619</v>
+        <v>0.1507112988832647</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>814</v>
@@ -2056,19 +2056,19 @@
         <v>513934</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>476829</v>
+        <v>479630</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>551101</v>
+        <v>555018</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1379484496102001</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1279889476781072</v>
+        <v>0.1287405746267332</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1479245795046733</v>
+        <v>0.1489760688035386</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1279</v>
@@ -2077,19 +2077,19 @@
         <v>996473</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>940753</v>
+        <v>940546</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1061311</v>
+        <v>1055359</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1374811062740774</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1297935086300394</v>
+        <v>0.1297649217425024</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1464266800192061</v>
+        <v>0.1456054436881759</v>
       </c>
     </row>
     <row r="23">
